--- a/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\bldgs\EoCEDwEC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EIA Table 1" sheetId="2" r:id="rId2"/>
     <sheet name="EoCEDwEC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>EoCEDwEC Elasticity of Component Energy Demand wrt Energy Cost</t>
   </si>
@@ -27,15 +32,6 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>Price Responsiveness in the AEO 2003 NEMS Residential and Commercial Buildings Sector Models</t>
-  </si>
-  <si>
-    <t>http://www.eia.gov/oiaf/analysispaper/elasticity/pdf/tbl.pdf</t>
-  </si>
-  <si>
-    <t>Page 1, Table 1</t>
-  </si>
-  <si>
     <t>This is a subset of Table 1 that includes only values from AEO2003 (not AEO99).</t>
   </si>
   <si>
@@ -93,21 +89,12 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>We use same-price, long-run elasticities minus the 1-year short-run elasticities.</t>
-  </si>
-  <si>
-    <t>We calculate it this way because we assume that 1-year elasticities primarily reflect behavior</t>
-  </si>
-  <si>
     <t>change rather than equipment change, and the response of behavior to price per unit service</t>
   </si>
   <si>
     <t>provided (that is, controlling for things like efficiency of equipment) should be constant at</t>
   </si>
   <si>
-    <t>all timescales.  So, the portion of the long-run elasticitiy represented by the 1-year elasticity</t>
-  </si>
-  <si>
     <t>is still behavior change, and the rest is equipment efficiency change, which is what we are</t>
   </si>
   <si>
@@ -148,12 +135,57 @@
   </si>
   <si>
     <t>therefore wood consumption is inelastic with respect to the price of wood in stores.</t>
+  </si>
+  <si>
+    <t>kerosene</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>We assume kerosene and fuel oil-burning equipment is similar to diesel-burning equipment.</t>
+  </si>
+  <si>
+    <t>We assume LPG/propane/butane-burning equipment is similar to natural gas-burning equipment.</t>
+  </si>
+  <si>
+    <t>We assume hydrogen-using equipment is similar to electricity-using equipment (as it may</t>
+  </si>
+  <si>
+    <t>contain fuel cells that produce electricity from hydrogen).</t>
+  </si>
+  <si>
+    <t>Elasticity by Fuel (dimensionless)</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/analysis/studies/buildings/energyuse/pdf/price_elasticities.pdf</t>
+  </si>
+  <si>
+    <t>Price Elasticities for Energy Use in Buildings of the United States</t>
+  </si>
+  <si>
+    <t>Appendix</t>
+  </si>
+  <si>
+    <t>We use same-price, long-run elasticities minus the 3-year short-run elasticities.</t>
+  </si>
+  <si>
+    <t>We calculate it this way because we assume that 3-year elasticities primarily reflect behavior</t>
+  </si>
+  <si>
+    <t>all timescales.  So, the portion of the long-run elasticitiy represented by the 3-year elasticity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -372,6 +404,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -382,6 +417,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -430,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,21 +712,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.453125" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,107 +738,127 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2005</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="22" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -814,32 +874,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -848,114 +910,114 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.2</v>
+        <v>-0.12</v>
       </c>
       <c r="C7" s="8">
-        <v>-0.28999999999999998</v>
+        <v>-0.21</v>
       </c>
       <c r="D7" s="9">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" s="7">
-        <v>-0.49</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="F7" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.14000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="8">
-        <v>-0.24</v>
+        <v>-0.13</v>
       </c>
       <c r="D8" s="9">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="E8" s="7">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="F8" s="19">
-        <v>-0.41</v>
+        <v>-0.21</v>
       </c>
       <c r="G8" s="9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="10">
-        <v>-0.15</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C9" s="11">
-        <v>-0.27</v>
+        <v>-0.12</v>
       </c>
       <c r="D9" s="12">
-        <v>-0.34</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E9" s="10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F9" s="11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
-        <v>-0.6</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -964,109 +1026,109 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="G13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="C14" s="8">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="D14" s="9">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="E14" s="7">
-        <v>-0.45</v>
+        <v>-0.33</v>
       </c>
       <c r="F14" s="19">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>-0.14000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="C15" s="8">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="D15" s="9">
-        <v>-0.28999999999999998</v>
+        <v>-0.3</v>
       </c>
       <c r="E15" s="7">
-        <v>0.86</v>
+        <v>0.15</v>
       </c>
       <c r="F15" s="19">
-        <v>-0.4</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="G15" s="9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="10">
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C16" s="11">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="D16" s="12">
-        <v>-0.28000000000000003</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E16" s="10">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="G16" s="12">
-        <v>-0.39</v>
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -1079,102 +1141,104 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="24">
-        <f>'EIA Table 1'!E7-'EIA Table 1'!B7</f>
-        <v>-0.28999999999999998</v>
+        <f>'EIA Table 1'!E7-'EIA Table 1'!D7</f>
+        <v>-3.0000000000000027E-2</v>
       </c>
       <c r="C2" s="24">
         <f>B2</f>
-        <v>-0.28999999999999998</v>
+        <v>-3.0000000000000027E-2</v>
       </c>
       <c r="D2" s="24">
-        <f>'EIA Table 1'!E14-'EIA Table 1'!B14</f>
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>'EIA Table 1'!E14-'EIA Table 1'!D14</f>
+        <v>-0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="23">
         <f>B5</f>
-        <v>-0.44999999999999996</v>
+        <v>-7.9999999999999988E-2</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C6" si="0">B3</f>
-        <v>-0.44999999999999996</v>
+        <v>-7.9999999999999988E-2</v>
       </c>
       <c r="D3" s="23">
         <f>D5</f>
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="24">
-        <f>'EIA Table 1'!F8-'EIA Table 1'!B8</f>
-        <v>-0.26999999999999996</v>
+        <f>'EIA Table 1'!F8-'EIA Table 1'!D8</f>
+        <v>-0.06</v>
       </c>
       <c r="C4" s="24">
         <f t="shared" si="0"/>
-        <v>-0.26999999999999996</v>
+        <v>-0.06</v>
       </c>
       <c r="D4" s="24">
-        <f>'EIA Table 1'!F15-'EIA Table 1'!B15</f>
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <f>'EIA Table 1'!F15-'EIA Table 1'!D15</f>
+        <v>-0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="24">
-        <f>'EIA Table 1'!G9-'EIA Table 1'!B9</f>
-        <v>-0.44999999999999996</v>
+        <f>'EIA Table 1'!G9-'EIA Table 1'!D9</f>
+        <v>-7.9999999999999988E-2</v>
       </c>
       <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>-0.44999999999999996</v>
+        <v>-7.9999999999999988E-2</v>
       </c>
       <c r="D5" s="24">
-        <f>'EIA Table 1'!G16-'EIA Table 1'!B16</f>
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f>'EIA Table 1'!G16-'EIA Table 1'!D16</f>
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1187,9 +1251,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1199,6 +1263,74 @@
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="23">
+        <f>B5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" ref="C8:D8" si="1">C5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="1"/>
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="23">
+        <f>B5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" ref="C9:D9" si="2">C5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="23">
+        <f>B4</f>
+        <v>-0.06</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" ref="C10:D10" si="3">C4</f>
+        <v>-0.06</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="3"/>
+        <v>-0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="23">
+        <f>B2</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="C11" s="23">
+        <f t="shared" ref="C11:D11" si="4">C2</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.11000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\bldgs\EoCEDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\bldgs\EoCEDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C52FB3-41BD-4AA8-9DB0-517E4DC09456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025" activeTab="2"/>
+    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EIA Table 1" sheetId="2" r:id="rId2"/>
     <sheet name="EoCEDwEC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,9 +45,6 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>This is a subset of Table 1 that includes only values from AEO2003 (not AEO99).</t>
-  </si>
-  <si>
     <t>It includes only the "Residential" and "Commercial" sections.</t>
   </si>
   <si>
@@ -170,9 +180,6 @@
     <t>Price Elasticities for Energy Use in Buildings of the United States</t>
   </si>
   <si>
-    <t>Appendix</t>
-  </si>
-  <si>
     <t>We use same-price, long-run elasticities minus the 3-year short-run elasticities.</t>
   </si>
   <si>
@@ -180,12 +187,18 @@
   </si>
   <si>
     <t>all timescales.  So, the portion of the long-run elasticitiy represented by the 3-year elasticity</t>
+  </si>
+  <si>
+    <t>This is a subset of Table 1 that includes only values from AEO2020 (not AEO99).</t>
+  </si>
+  <si>
+    <t>page 3: Table 1, Table 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,6 +436,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342129</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>94349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E86501-9ED3-7297-E799-C43233564A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543675" y="161925"/>
+          <a:ext cx="6171429" cy="7209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,6 +563,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -536,6 +615,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,24 +807,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="67.42578125" customWidth="1"/>
+    <col min="2" max="2" width="67.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,134 +832,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -871,37 +967,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="20" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>5</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -910,71 +1006,71 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="C7" s="8">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="D7" s="9">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="E7" s="7">
-        <v>-0.28000000000000003</v>
+        <v>-0.5</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="7">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="C8" s="8">
         <v>-0.13</v>
@@ -983,41 +1079,41 @@
         <v>-0.15</v>
       </c>
       <c r="E8" s="7">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F8" s="19">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="10">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="C9" s="11">
-        <v>-0.12</v>
+        <v>-0.16</v>
       </c>
       <c r="D9" s="12">
-        <v>-0.14000000000000001</v>
+        <v>-0.19</v>
       </c>
       <c r="E9" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F9" s="11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G9" s="12">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1026,219 +1122,220 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7">
-        <v>-0.11</v>
+        <v>-0.08</v>
       </c>
       <c r="C14" s="8">
+        <v>-0.13</v>
+      </c>
+      <c r="D14" s="9">
+        <v>-0.15</v>
+      </c>
+      <c r="E14" s="7">
         <v>-0.18</v>
       </c>
-      <c r="D14" s="9">
-        <v>-0.22</v>
-      </c>
-      <c r="E14" s="7">
-        <v>-0.33</v>
-      </c>
       <c r="F14" s="19">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7">
+        <v>-0.03</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-0.18</v>
+      </c>
+      <c r="D15" s="9">
+        <v>-0.25</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="F15" s="19">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7">
-        <v>-0.15</v>
-      </c>
-      <c r="C15" s="8">
-        <v>-0.25</v>
-      </c>
-      <c r="D15" s="9">
-        <v>-0.3</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F15" s="19">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="B16" s="10">
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="C16" s="11">
-        <v>-0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="D16" s="12">
-        <v>-0.28999999999999998</v>
+        <v>-0.26</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G16" s="12">
-        <v>-0.42</v>
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="D1" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="24">
         <f>'EIA Table 1'!E7-'EIA Table 1'!D7</f>
-        <v>-3.0000000000000027E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="C2" s="24">
         <f>B2</f>
-        <v>-3.0000000000000027E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="D2" s="24">
         <f>'EIA Table 1'!E14-'EIA Table 1'!D14</f>
-        <v>-0.11000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="23">
         <f>B5</f>
-        <v>-7.9999999999999988E-2</v>
+        <v>-4.9999999999999989E-2</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C6" si="0">B3</f>
-        <v>-7.9999999999999988E-2</v>
+        <v>-4.9999999999999989E-2</v>
       </c>
       <c r="D3" s="23">
         <f>D5</f>
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="24">
         <f>'EIA Table 1'!F8-'EIA Table 1'!D8</f>
-        <v>-0.06</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="C4" s="24">
         <f t="shared" si="0"/>
-        <v>-0.06</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="D4" s="24">
         <f>'EIA Table 1'!F15-'EIA Table 1'!D15</f>
-        <v>-0.27999999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+        <v>-3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="24">
         <f>'EIA Table 1'!G9-'EIA Table 1'!D9</f>
-        <v>-7.9999999999999988E-2</v>
+        <v>-4.9999999999999989E-2</v>
       </c>
       <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>-7.9999999999999988E-2</v>
+        <v>-4.9999999999999989E-2</v>
       </c>
       <c r="D5" s="24">
         <f>'EIA Table 1'!G16-'EIA Table 1'!D16</f>
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1251,9 +1348,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1265,72 +1362,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="23">
         <f>B5</f>
-        <v>-7.9999999999999988E-2</v>
+        <v>-4.9999999999999989E-2</v>
       </c>
       <c r="C8" s="23">
         <f t="shared" ref="C8:D8" si="1">C5</f>
-        <v>-7.9999999999999988E-2</v>
+        <v>-4.9999999999999989E-2</v>
       </c>
       <c r="D8" s="23">
         <f t="shared" si="1"/>
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="23">
         <f>B5</f>
-        <v>-7.9999999999999988E-2</v>
+        <v>-4.9999999999999989E-2</v>
       </c>
       <c r="C9" s="23">
         <f t="shared" ref="C9:D9" si="2">C5</f>
-        <v>-7.9999999999999988E-2</v>
+        <v>-4.9999999999999989E-2</v>
       </c>
       <c r="D9" s="23">
         <f t="shared" si="2"/>
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="23">
         <f>B4</f>
-        <v>-0.06</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="C10" s="23">
         <f t="shared" ref="C10:D10" si="3">C4</f>
-        <v>-0.06</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="D10" s="23">
         <f t="shared" si="3"/>
-        <v>-0.27999999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="23">
         <f>B2</f>
-        <v>-3.0000000000000027E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="C11" s="23">
         <f t="shared" ref="C11:D11" si="4">C2</f>
-        <v>-3.0000000000000027E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="D11" s="23">
         <f t="shared" si="4"/>
-        <v>-0.11000000000000001</v>
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
